--- a/target/test-classes/testdata/login.xlsx
+++ b/target/test-classes/testdata/login.xlsx
@@ -27,10 +27,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>v21@gmail.com</t>
+    <t>venukollapudi@gmail.com</t>
   </si>
   <si>
-    <t>v12345</t>
+    <t>Venu@12345</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,13 +379,14 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
